--- a/docs/sheet.xlsx
+++ b/docs/sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t xml:space="preserve">Peças</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">Onde comprar</t>
   </si>
   <si>
+    <t xml:space="preserve">GUS</t>
+  </si>
+  <si>
     <t xml:space="preserve">JÃO</t>
   </si>
   <si>
@@ -46,33 +49,12 @@
     <t xml:space="preserve">https://www.eletrogate.com/modulo-sensor-de-distancia-ultrassonico-hc-sr04</t>
   </si>
   <si>
-    <t xml:space="preserve">Infravermelho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.eletrogate.com/sensor-de-obstaculo-reflexivo-infravermelho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Câmera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pt.aliexpress.com/item/1005007008920127.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUS</t>
-  </si>
-  <si>
     <t xml:space="preserve">ESP32</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.eletrogate.com/placa-wemos-d1-esp32-wifi-bluetooth</t>
   </si>
   <si>
-    <t xml:space="preserve">GPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.eletrogate.com/modulo-gps-neo-6m-com-antena</t>
-  </si>
-  <si>
     <t xml:space="preserve">Buzzer</t>
   </si>
   <si>
@@ -83,6 +65,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.eletrogate.com/micro-motor-de-vibracao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumpers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eletrogate.com/jumpers-macho-femea-20-unidades-de-20-cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.usinainfo.com.br/motor-dc/modulo-motor-vibracall-arduino-mv50-para-projetos-5486.html</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL</t>
@@ -97,7 +88,7 @@
     <numFmt numFmtId="165" formatCode="&quot;R$ &quot;#,##0.00;[RED]&quot;-R$ &quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_-&quot;R$ &quot;* #,##0.00_-;&quot;-R$ &quot;* #,##0.00_-;_-&quot;R$ &quot;* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,23 +121,52 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +181,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor rgb="FF808080"/>
+        <bgColor rgb="FF7F7F7F"/>
       </patternFill>
     </fill>
     <fill>
@@ -179,6 +205,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.4999"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.1"/>
         <bgColor rgb="FFBDD7EE"/>
       </patternFill>
@@ -191,20 +223,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.5999"/>
         <bgColor rgb="FFD0CECE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.5999"/>
         <bgColor rgb="FFD0CECE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.5"/>
-        <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
   </fills>
@@ -244,7 +270,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -261,79 +287,103 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -363,7 +413,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFD0CECE"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF5B9BD5"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -586,17 +636,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="68.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="195.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,213 +659,273 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
+    <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="D3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="17" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15"/>
+      <c r="B5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="13" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="17" t="n">
+        <v>72.9</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15"/>
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="13" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="13" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="E6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="17" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="13" t="n">
-        <v>72.9</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="17" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="B8" s="20"/>
       <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="13" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="17" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="B9" s="20"/>
       <c r="C9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="13" t="n">
-        <f aca="false">SUM(D4:D10)</f>
-        <v>195.48</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="13" t="n">
-        <f aca="false">SUM(D4:D6)</f>
-        <v>50.27</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="13" t="n">
-        <f aca="false">SUM(D7:D10)</f>
-        <v>145.21</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="2"/>
+      <c r="D17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="28"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -820,12 +933,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="https://www.eletrogate.com/modulo-sensor-de-distancia-ultrassonico-hc-sr04"/>
-    <hyperlink ref="E5" r:id="rId2" display="https://www.eletrogate.com/sensor-de-obstaculo-reflexivo-infravermelho"/>
-    <hyperlink ref="E6" r:id="rId3" display="https://pt.aliexpress.com/item/1005007008920127.html"/>
-    <hyperlink ref="E7" r:id="rId4" display="https://www.eletrogate.com/placa-wemos-d1-esp32-wifi-bluetooth"/>
-    <hyperlink ref="E8" r:id="rId5" display="https://www.eletrogate.com/modulo-gps-neo-6m-com-antena"/>
-    <hyperlink ref="E9" r:id="rId6" display="https://www.eletrogate.com/modulo-buzzer-passivo-5v"/>
-    <hyperlink ref="E10" r:id="rId7" display="https://www.eletrogate.com/micro-motor-de-vibracao"/>
+    <hyperlink ref="E5" r:id="rId2" display="https://www.eletrogate.com/placa-wemos-d1-esp32-wifi-bluetooth"/>
+    <hyperlink ref="E6" r:id="rId3" display="https://www.eletrogate.com/modulo-buzzer-passivo-5v"/>
+    <hyperlink ref="E7" r:id="rId4" display="https://www.eletrogate.com/micro-motor-de-vibracao"/>
+    <hyperlink ref="E8" r:id="rId5" display="https://www.eletrogate.com/jumpers-macho-femea-20-unidades-de-20-cm"/>
+    <hyperlink ref="E9" r:id="rId6" display="https://www.usinainfo.com.br/motor-dc/modulo-motor-vibracall-arduino-mv50-para-projetos-5486.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/sheet.xlsx
+++ b/docs/sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t xml:space="preserve">Peças</t>
   </si>
@@ -31,18 +31,18 @@
     <t xml:space="preserve">Onde comprar</t>
   </si>
   <si>
+    <t xml:space="preserve">JÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolsa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
     <t xml:space="preserve">GUS</t>
   </si>
   <si>
-    <t xml:space="preserve">JÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolsa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
     <t xml:space="preserve">HC-SR04</t>
   </si>
   <si>
@@ -61,16 +61,13 @@
     <t xml:space="preserve">https://www.eletrogate.com/modulo-buzzer-passivo-5v</t>
   </si>
   <si>
+    <t xml:space="preserve">Jumpers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eletrogate.com/jumpers-macho-femea-20-unidades-de-20-cm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vibracall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.eletrogate.com/micro-motor-de-vibracao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumpers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.eletrogate.com/jumpers-macho-femea-20-unidades-de-20-cm</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.usinainfo.com.br/motor-dc/modulo-motor-vibracall-arduino-mv50-para-projetos-5486.html</t>
@@ -94,7 +91,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -118,21 +114,25 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -140,22 +140,12 @@
       <color theme="0"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -163,10 +153,9 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,13 +177,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor rgb="FF7F7F7F"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor rgb="FF339966"/>
+        <bgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -205,12 +194,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.4999"/>
-        <bgColor rgb="FF666699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.1"/>
         <bgColor rgb="FFBDD7EE"/>
       </patternFill>
@@ -231,6 +214,18 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.5999"/>
         <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF7F7F7F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.4999"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -270,7 +265,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -279,7 +274,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -287,7 +282,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -300,27 +295,31 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -331,52 +330,28 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -413,7 +388,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFD0CECE"/>
-      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF5B9BD5"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -445,9 +420,9 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF70AD47"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -500,16 +475,16 @@
         <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -517,67 +492,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -596,35 +529,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -636,23 +545,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="195.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.69"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -677,20 +586,18 @@
       <c r="I2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
@@ -699,7 +606,9 @@
     </row>
     <row r="4" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
+      <c r="B4" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
@@ -716,8 +625,8 @@
     </row>
     <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15"/>
-      <c r="B5" s="19" t="s">
-        <v>3</v>
+      <c r="B5" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>9</v>
@@ -734,15 +643,15 @@
       <c r="I5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="17" t="n">
-        <v>4.9</v>
+        <v>12.51</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>12</v>
@@ -754,7 +663,9 @@
     </row>
     <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
@@ -770,13 +681,15 @@
       <c r="I7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="17" t="n">
-        <v>12.51</v>
+        <v>31</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>16</v>
@@ -787,50 +700,54 @@
       <c r="I8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="17" t="n">
+        <f aca="false">SUM(D4:D8)</f>
+        <v>141.43</v>
+      </c>
+      <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="17" t="n">
+        <f aca="false">SUM(D6,D8)</f>
+        <v>43.51</v>
+      </c>
+      <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -838,95 +755,48 @@
     </row>
     <row r="13" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="17" t="n">
+        <f aca="false">SUM(D4:D7)</f>
+        <v>110.43</v>
+      </c>
+      <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="17"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="23"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="28"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="2"/>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
@@ -935,9 +805,8 @@
     <hyperlink ref="E4" r:id="rId1" display="https://www.eletrogate.com/modulo-sensor-de-distancia-ultrassonico-hc-sr04"/>
     <hyperlink ref="E5" r:id="rId2" display="https://www.eletrogate.com/placa-wemos-d1-esp32-wifi-bluetooth"/>
     <hyperlink ref="E6" r:id="rId3" display="https://www.eletrogate.com/modulo-buzzer-passivo-5v"/>
-    <hyperlink ref="E7" r:id="rId4" display="https://www.eletrogate.com/micro-motor-de-vibracao"/>
-    <hyperlink ref="E8" r:id="rId5" display="https://www.eletrogate.com/jumpers-macho-femea-20-unidades-de-20-cm"/>
-    <hyperlink ref="E9" r:id="rId6" display="https://www.usinainfo.com.br/motor-dc/modulo-motor-vibracall-arduino-mv50-para-projetos-5486.html"/>
+    <hyperlink ref="E7" r:id="rId4" display="https://www.eletrogate.com/jumpers-macho-femea-20-unidades-de-20-cm"/>
+    <hyperlink ref="E8" r:id="rId5" display="https://www.usinainfo.com.br/motor-dc/modulo-motor-vibracall-arduino-mv50-para-projetos-5486.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
